--- a/Assets/Prologue/PrologueData.xlsx
+++ b/Assets/Prologue/PrologueData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CreameWorks_Projects\Elf\Assets\Prologue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314DE4E3-BA44-4700-8614-EC021FFC70EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1395AEAF-0739-499B-A7DD-5DA79BA37244}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{78E17301-FB8C-413C-99E7-10E4BDCB23A3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>sentence</t>
     <phoneticPr fontId="1"/>
@@ -69,6 +69,14 @@
   </si>
   <si>
     <t>number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ivjdi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vnionoibw</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -433,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8FB273A-AD64-4C51-827A-35C4585CFC43}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -484,6 +492,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Prologue/PrologueData.xlsx
+++ b/Assets/Prologue/PrologueData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CreameWorks_Projects\Elf\Assets\Prologue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\リポジトリ\ウェステリア\Assets\Prologue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1395AEAF-0739-499B-A7DD-5DA79BA37244}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC21824-046E-4EE1-A803-EB4FE8462488}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{78E17301-FB8C-413C-99E7-10E4BDCB23A3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{78E17301-FB8C-413C-99E7-10E4BDCB23A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,13 +41,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全てを</t>
-    <rPh sb="0" eb="1">
-      <t>スベ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>手に入れるんだー！</t>
     <rPh sb="0" eb="1">
       <t>テ</t>
@@ -77,6 +70,10 @@
   </si>
   <si>
     <t>vnionoibw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>と０こを</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -444,23 +441,23 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -468,44 +465,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Prologue/PrologueData.xlsx
+++ b/Assets/Prologue/PrologueData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\リポジトリ\ウェステリア\Assets\Prologue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC21824-046E-4EE1-A803-EB4FE8462488}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB90FFFB-472E-4239-A483-FB376952A3CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{78E17301-FB8C-413C-99E7-10E4BDCB23A3}"/>
   </bookViews>
@@ -37,43 +37,97 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>うぉぉぉぉぉお</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>手に入れるんだー！</t>
-    <rPh sb="0" eb="1">
-      <t>テ</t>
-    </rPh>
+    <t>number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この世界は　様々な種族が生き　魔法に満ちた世界</t>
+    <rPh sb="2" eb="4">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュゾク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その中心にはとても大きな大陸があり</t>
+    <rPh sb="2" eb="4">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タイリク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種族ごとにコミュニティを作り　生活している</t>
+    <rPh sb="0" eb="2">
+      <t>シュゾク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここは　その大陸の西方に位置する　エルフ族が住む森</t>
+    <rPh sb="6" eb="8">
+      <t>タイリク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そして　今</t>
+    <rPh sb="4" eb="5">
+      <t>イマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その森が　消えようとしていた・・・</t>
     <rPh sb="2" eb="3">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>俺は　俺は！</t>
-    <rPh sb="0" eb="1">
-      <t>オレ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オレ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ivjdi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>vnionoibw</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>と０こを</t>
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -441,17 +495,17 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -462,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.7">
@@ -478,7 +532,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.7">
@@ -486,7 +540,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.7">
@@ -494,7 +548,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.7">
@@ -502,7 +556,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Prologue/PrologueData.xlsx
+++ b/Assets/Prologue/PrologueData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\リポジトリ\ウェステリア\Assets\Prologue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB90FFFB-472E-4239-A483-FB376952A3CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9E551F-4D6F-44B9-A36B-ABD9D354E009}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{78E17301-FB8C-413C-99E7-10E4BDCB23A3}"/>
   </bookViews>
@@ -92,40 +92,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ここは　その大陸の西方に位置する　エルフ族が住む森</t>
-    <rPh sb="6" eb="8">
+    <t>そしてここは　その大陸の西方に位置する　エルフ族が住む森</t>
+    <rPh sb="9" eb="11">
       <t>タイリク</t>
     </rPh>
-    <rPh sb="9" eb="11">
+    <rPh sb="12" eb="14">
       <t>セイホウ</t>
     </rPh>
-    <rPh sb="12" eb="14">
+    <rPh sb="15" eb="17">
       <t>イチ</t>
     </rPh>
-    <rPh sb="20" eb="21">
+    <rPh sb="23" eb="24">
       <t>ゾク</t>
     </rPh>
-    <rPh sb="22" eb="23">
+    <rPh sb="25" eb="26">
       <t>ス</t>
     </rPh>
-    <rPh sb="24" eb="25">
+    <rPh sb="27" eb="28">
       <t>モリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>そして　今</t>
-    <rPh sb="4" eb="5">
-      <t>イマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>その森が　消えようとしていた・・・</t>
+    <t>その森が　今</t>
     <rPh sb="2" eb="3">
       <t>モリ</t>
     </rPh>
     <rPh sb="5" eb="6">
+      <t>イマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消えようとしていた・・・</t>
+    <rPh sb="0" eb="1">
       <t>キ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -495,7 +495,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
